--- a/library/export_abstract.xlsx
+++ b/library/export_abstract.xlsx
@@ -379,9 +379,87 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -391,101 +469,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,7 +524,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D49638B3-4B0A-4951-B564-3AC98A979317}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49638B3-4B0A-4951-B564-3AC98A979317}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +890,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,7 +901,7 @@
   <dimension ref="A3:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:K24"/>
+      <selection activeCell="K13" sqref="K13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,92 +933,92 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="25" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="25" t="s">
+      <c r="H10" s="47"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="25" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="31" t="s">
+      <c r="H11" s="47"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="57"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="25" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="40"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="H12" s="47"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="60"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1035,38 +1035,38 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="46" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="57"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="11" t="s">
         <v>14</v>
       </c>
@@ -1087,20 +1087,20 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
@@ -1110,11 +1110,11 @@
       <c r="E17" s="12"/>
       <c r="H17" s="19"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -1124,11 +1124,11 @@
       <c r="E18" s="12"/>
       <c r="H18" s="19"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:14" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
@@ -1138,11 +1138,11 @@
       <c r="E19" s="15"/>
       <c r="H19" s="23"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
@@ -1154,11 +1154,11 @@
       <c r="G20" s="10"/>
       <c r="H20" s="21"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
@@ -1170,11 +1170,11 @@
       <c r="G21" s="10"/>
       <c r="H21" s="21"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
@@ -1186,11 +1186,11 @@
       <c r="G22" s="7"/>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
@@ -1202,11 +1202,11 @@
       <c r="G23" s="7"/>
       <c r="H23" s="23"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
@@ -1219,10 +1219,10 @@
       <c r="H24" s="21"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -1240,7 +1240,7 @@
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
     </row>
-    <row r="26" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -1256,7 +1256,7 @@
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
     </row>
-    <row r="27" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1272,7 +1272,7 @@
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
     </row>
-    <row r="28" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1288,7 +1288,7 @@
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
     </row>
-    <row r="29" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1304,7 +1304,7 @@
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
     </row>
-    <row r="30" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1320,7 +1320,7 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1336,7 +1336,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="10"/>
@@ -1352,7 +1352,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1368,7 +1368,7 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1384,7 +1384,7 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1400,7 +1400,7 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1416,7 +1416,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1432,7 +1432,7 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1466,14 +1466,15 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="F8:K8"/>
     <mergeCell ref="F9:K9"/>
     <mergeCell ref="J11:K12"/>
@@ -1483,15 +1484,14 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/library/export_abstract.xlsx
+++ b/library/export_abstract.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FAS\library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,11 +91,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="165" formatCode="[$₱-464]#,##0.00;[Red][$₱-464]#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +138,7 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="7"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -141,19 +146,6 @@
     <font>
       <i/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -325,72 +317,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,13 +388,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -445,13 +421,31 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -463,29 +457,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,7 +500,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49638B3-4B0A-4951-B564-3AC98A979317}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49638B3-4B0A-4951-B564-3AC98A979317}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -557,13 +533,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>717177</xdr:colOff>
+      <xdr:colOff>945777</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>104582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>965049</xdr:colOff>
+      <xdr:colOff>1193649</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>92178</xdr:rowOff>
     </xdr:to>
@@ -588,8 +564,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8774206" y="295082"/>
-          <a:ext cx="2623519" cy="738390"/>
+          <a:off x="9061077" y="287462"/>
+          <a:ext cx="2640552" cy="719116"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -890,7 +866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -898,571 +874,3171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N39"/>
+  <dimension ref="A3:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:L13"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="14" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="14" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="41" t="s">
+    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="50" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50" t="s">
+      <c r="F10" s="50"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="K10" s="49"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="50" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="43" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="44"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="57"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="K11" s="36"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="50" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51">
+        <v>23213</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="29" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="11" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-    </row>
-    <row r="19" spans="1:14" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="N132" s="7"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="7"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="7"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="7"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="7"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="7"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144" s="7"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="7"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145" s="7"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A146" s="7"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148" s="7"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A149" s="7"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="7"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A150" s="7"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="7"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A151" s="7"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A152" s="7"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A153" s="7"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A155" s="7"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A156" s="7"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A157" s="7"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160" s="7"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A161" s="7"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A162" s="7"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="7"/>
+      <c r="N162" s="7"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
+      <c r="L163" s="7"/>
+      <c r="M163" s="7"/>
+      <c r="N163" s="7"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A164" s="7"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="7"/>
+      <c r="N164" s="7"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="7"/>
+      <c r="N165" s="7"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7"/>
+      <c r="M166" s="7"/>
+      <c r="N166" s="7"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A167" s="7"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="7"/>
+      <c r="M167" s="7"/>
+      <c r="N167" s="7"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A169" s="7"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A171" s="7"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
+      <c r="M171" s="7"/>
+      <c r="N171" s="7"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A175" s="7"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A176" s="7"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+      <c r="N177" s="7"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A178" s="7"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="7"/>
+      <c r="M179" s="7"/>
+      <c r="N179" s="7"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="7"/>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="7"/>
+      <c r="M181" s="7"/>
+      <c r="N181" s="7"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A182" s="7"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A183" s="7"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="7"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A184" s="7"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="7"/>
+      <c r="L184" s="7"/>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="7"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="7"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A186" s="7"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="7"/>
+      <c r="L186" s="7"/>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A187" s="7"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="7"/>
+      <c r="L187" s="7"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="7"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A188" s="7"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="7"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A189" s="7"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A190" s="7"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="7"/>
+      <c r="L190" s="7"/>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A191" s="7"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A192" s="7"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="7"/>
+      <c r="L192" s="7"/>
+      <c r="M192" s="7"/>
+      <c r="N192" s="7"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A193" s="7"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
+      <c r="L193" s="7"/>
+      <c r="M193" s="7"/>
+      <c r="N193" s="7"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A194" s="7"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="7"/>
+      <c r="L194" s="7"/>
+      <c r="M194" s="7"/>
+      <c r="N194" s="7"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A195" s="7"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="7"/>
+      <c r="L195" s="7"/>
+      <c r="M195" s="7"/>
+      <c r="N195" s="7"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A196" s="7"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
+      <c r="L196" s="7"/>
+      <c r="M196" s="7"/>
+      <c r="N196" s="7"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A197" s="7"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
+      <c r="K197" s="7"/>
+      <c r="L197" s="7"/>
+      <c r="M197" s="7"/>
+      <c r="N197" s="7"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A198" s="7"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="7"/>
+      <c r="K198" s="7"/>
+      <c r="L198" s="7"/>
+      <c r="M198" s="7"/>
+      <c r="N198" s="7"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A199" s="7"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7"/>
+      <c r="K199" s="7"/>
+      <c r="L199" s="7"/>
+      <c r="M199" s="7"/>
+      <c r="N199" s="7"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A200" s="7"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="J200" s="7"/>
+      <c r="K200" s="7"/>
+      <c r="L200" s="7"/>
+      <c r="M200" s="7"/>
+      <c r="N200" s="7"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A201" s="7"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="7"/>
+      <c r="J201" s="7"/>
+      <c r="K201" s="7"/>
+      <c r="L201" s="7"/>
+      <c r="M201" s="7"/>
+      <c r="N201" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -1494,7 +4070,7 @@
     <mergeCell ref="H14:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,Bold"&amp;K00-024THIS DOCUMENTED INFORMATION IS CONTROLLED AND NOT TO BE REPRODUCED WITHOUT AUTHORIZATION</oddFooter>
   </headerFooter>

--- a/library/export_abstract.xlsx
+++ b/library/export_abstract.xlsx
@@ -364,6 +364,66 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -402,66 +462,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,10 +886,10 @@
     <col min="2" max="2" width="6.77734375" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" customWidth="1"/>
     <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="14" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -909,92 +909,92 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="48" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48" t="s">
+      <c r="H10" s="36"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="47"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="48" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="50"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="35" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="41"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22">
         <v>23213</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="48" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="50"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="44"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
@@ -1013,38 +1013,38 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="21" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="32"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="10" t="s">
         <v>14</v>
       </c>
@@ -1065,11 +1065,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="8"/>
@@ -4042,6 +4042,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -4051,23 +4068,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="L11:N12"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/library/export_abstract.xlsx
+++ b/library/export_abstract.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$56</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -364,9 +367,96 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -375,93 +465,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,7 +542,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1193649</xdr:colOff>
+      <xdr:colOff>1140309</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>92178</xdr:rowOff>
     </xdr:to>
@@ -876,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,92 +912,92 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="20" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="20" t="s">
+      <c r="H10" s="45"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="20" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="26" t="s">
+      <c r="H11" s="45"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51">
         <v>23213</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
@@ -1013,38 +1016,38 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="41" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="52"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="10" t="s">
         <v>14</v>
       </c>
@@ -1065,11 +1068,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="8"/>
@@ -4042,14 +4045,15 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="F8:K8"/>
     <mergeCell ref="F9:K9"/>
     <mergeCell ref="J11:K12"/>
@@ -4059,15 +4063,14 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/library/export_abstract.xlsx
+++ b/library/export_abstract.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>For the quotation opened on _______________ at ______ AM/PM</t>
+  </si>
+  <si>
+    <t>ITEM NO.</t>
   </si>
 </sst>
 </file>
@@ -333,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -384,12 +387,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,19 +421,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,13 +559,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>945777</xdr:colOff>
+      <xdr:colOff>879102</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>104582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>484</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1048234</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>92178</xdr:rowOff>
     </xdr:to>
@@ -584,8 +590,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9061077" y="287462"/>
-          <a:ext cx="2640552" cy="719116"/>
+          <a:off x="8403852" y="295082"/>
+          <a:ext cx="2397982" cy="740071"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,92 +935,92 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="50" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="52"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50" t="s">
+      <c r="H10" s="48"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="50" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="37" t="s">
+      <c r="H11" s="48"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54">
         <v>23213</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="50" t="s">
+      <c r="D12" s="54"/>
+      <c r="E12" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="52"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="46"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -1033,38 +1039,40 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="23" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="34"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1085,11 +1093,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
@@ -4061,7 +4069,19 @@
       <c r="N201" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="J11:K12"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -4071,19 +4091,8 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="L11:N12"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J10:K10"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="A16:E16"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="F14:F15"/>

--- a/library/export_abstract.xlsx
+++ b/library/export_abstract.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,22 +17,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$56</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,131 +36,219 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
+    <t>For the quotation opened on June 08, 2020 at 08:00 am</t>
+  </si>
+  <si>
     <t>PR No.:</t>
   </si>
   <si>
+    <t>2020-06-0189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR Date: </t>
+  </si>
+  <si>
+    <t>June 04, 2020</t>
+  </si>
+  <si>
+    <t>Mode of Procurement:</t>
+  </si>
+  <si>
+    <t>Small Value Procurement</t>
+  </si>
+  <si>
     <t>RFQ No.:</t>
   </si>
   <si>
+    <t>2020-108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFQ Date: </t>
+  </si>
+  <si>
+    <t>June 08, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose: </t>
+  </si>
+  <si>
+    <t>For the payment of fuel and lubricants for the month of April 2020</t>
+  </si>
+  <si>
     <t>ABC:</t>
   </si>
   <si>
-    <t xml:space="preserve">PR Date: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFQ Date: </t>
-  </si>
-  <si>
     <t>Office:</t>
   </si>
   <si>
-    <t>Mode of Procurement:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose: </t>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>ITEM NO.</t>
   </si>
   <si>
     <t>ITEM DESCRIPTION</t>
   </si>
   <si>
+    <t>QTY</t>
+  </si>
+  <si>
     <t>UNIT</t>
   </si>
   <si>
+    <t>ABC Per Item</t>
+  </si>
+  <si>
+    <t>168 Paragon International General Contractror   Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-08 Auto Shop
+</t>
+  </si>
+  <si>
+    <t>88 Hot Spring Resort</t>
+  </si>
+  <si>
     <t>Quoted Price Per Item</t>
   </si>
   <si>
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>ABC Per Item</t>
-  </si>
-  <si>
-    <t>For the quotation opened on _______________ at ______ AM/PM</t>
-  </si>
-  <si>
-    <t>ITEM NO.</t>
+    <t xml:space="preserve">Fuel and Lubricants
+</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>GRANDTOTAL</t>
+  </si>
+  <si>
+    <t>Remarks:</t>
+  </si>
+  <si>
+    <t>Based on the above quotation of prices by the different dealers called for on the above articles, the Committee hereby recommends that the award be given to the dealer (s) which offered the lowest</t>
+  </si>
+  <si>
+    <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Item(s) 1 to 1 to 7-08 Auto Shop
+</t>
+  </si>
+  <si>
+    <t>MAYBELLINE M. MONTEIRO</t>
+  </si>
+  <si>
+    <t>JOYCE ARLA PEACH B. ESCALANTE</t>
+  </si>
+  <si>
+    <t>HANNAH GRACE P. SOLIS</t>
+  </si>
+  <si>
+    <t>SSVPC Member</t>
+  </si>
+  <si>
+    <t>Alternate SSVPC Member</t>
+  </si>
+  <si>
+    <t>Noted By:</t>
+  </si>
+  <si>
+    <t>BEZALEEL O. SOLTURA</t>
+  </si>
+  <si>
+    <t>SSVPC Head</t>
+  </si>
+  <si>
+    <t>Eligibility Requirements:</t>
+  </si>
+  <si>
+    <t>Note: In order to be eligible for this procurement, suppliers / service providers must submit together with the quotation / proposal the following eligibility requirements:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          1. Valid Business Permit       2. Latest Income / Business Tax Return       3. PhilGEPS Registration No.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="[$₱-464]#,##0.00;[Red][$₱-464]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="\₱#,##0.00_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,13 +256,34 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EDF7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EDF7"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -194,29 +293,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -224,23 +310,78 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -249,86 +390,59 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6A6D6D"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF6A6D6D"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF6A6D6D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF6A6D6D"/>
       </bottom>
       <diagonal/>
     </border>
@@ -336,165 +450,221 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="76">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -508,46 +678,31 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381635</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>111573</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="857250" cy="828675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49638B3-4B0A-4951-B564-3AC98A979317}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45720" y="220980"/>
-          <a:ext cx="861695" cy="827405"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,20 +710,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>879102</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104582</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1048234</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>92178</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="2400300" cy="742950"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2"/>
@@ -577,21 +727,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8403852" y="295082"/>
-          <a:ext cx="2397982" cy="740071"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -599,7 +743,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -614,44 +758,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -679,31 +823,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -731,23 +858,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -759,142 +869,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -902,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,92 +1069,106 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57">
+        <v>580</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="44"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54">
-        <v>23213</v>
-      </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
+      <c r="H12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="34"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -1039,314 +1187,378 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
+      <c r="A14" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="60"/>
+      <c r="K14" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="60"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="26"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>1</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="19">
+        <v>290</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="20">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="I16" s="20">
+        <v>1</v>
+      </c>
+      <c r="J16" s="21">
+        <v>290</v>
+      </c>
+      <c r="K16" s="23">
+        <v>2</v>
+      </c>
+      <c r="L16" s="23">
+        <v>580</v>
+      </c>
+      <c r="M16" s="21">
+        <v>3</v>
+      </c>
+      <c r="N16" s="21">
+        <v>870</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="21">
+        <v>290</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="25">
+        <v>580</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="21">
+        <v>870</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-    </row>
-    <row r="19" spans="1:14" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
+      <c r="A20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
+      <c r="A21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
+      <c r="A23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="70"/>
+      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="70"/>
+      <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="74"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1357,8 +1569,10 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="I32" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="75"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -1381,7 +1595,9 @@
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+      <c r="A34" s="28" t="s">
+        <v>45</v>
+      </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1397,7 +1613,9 @@
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="A35" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1413,7 +1631,9 @@
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="A36" s="28" t="s">
+        <v>47</v>
+      </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -4069,13 +4289,22 @@
       <c r="N201" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="L11:N12"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J10:K10"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="36">
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="B14:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="A14:A15"/>
@@ -4092,14 +4321,15 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,Bold"&amp;K00-024THIS DOCUMENTED INFORMATION IS CONTROLLED AND NOT TO BE REPRODUCED WITHOUT AUTHORIZATION</oddFooter>
   </headerFooter>

--- a/library/export_abstract.xlsx
+++ b/library/export_abstract.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12345"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,22 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$56</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -36,77 +46,34 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
-    <t>For the quotation opened on June 08, 2020 at 08:00 am</t>
-  </si>
-  <si>
     <t>PR No.:</t>
   </si>
   <si>
-    <t>2020-06-0189</t>
+    <t>RFQ No.:</t>
+  </si>
+  <si>
+    <t>ABC:</t>
   </si>
   <si>
     <t xml:space="preserve">PR Date: </t>
   </si>
   <si>
-    <t>June 04, 2020</t>
+    <t xml:space="preserve">RFQ Date: </t>
+  </si>
+  <si>
+    <t>Office:</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
   </si>
   <si>
-    <t>Small Value Procurement</t>
-  </si>
-  <si>
-    <t>RFQ No.:</t>
-  </si>
-  <si>
-    <t>2020-108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFQ Date: </t>
-  </si>
-  <si>
-    <t>June 08, 2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Purpose: </t>
-  </si>
-  <si>
-    <t>For the payment of fuel and lubricants for the month of April 2020</t>
-  </si>
-  <si>
-    <t>ABC:</t>
-  </si>
-  <si>
-    <t>Office:</t>
-  </si>
-  <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>ITEM NO.</t>
   </si>
   <si>
     <t>ITEM DESCRIPTION</t>
   </si>
   <si>
-    <t>QTY</t>
-  </si>
-  <si>
     <t>UNIT</t>
-  </si>
-  <si>
-    <t>ABC Per Item</t>
-  </si>
-  <si>
-    <t>168 Paragon International General Contractror   Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-08 Auto Shop
-</t>
-  </si>
-  <si>
-    <t>88 Hot Spring Resort</t>
   </si>
   <si>
     <t>Quoted Price Per Item</t>
@@ -115,140 +82,95 @@
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuel and Lubricants
-</t>
+    <t>QTY</t>
   </si>
   <si>
-    <t>lot</t>
+    <t>ABC Per Item</t>
   </si>
   <si>
-    <t>GRANDTOTAL</t>
+    <t>For the quotation opened on _______________ at ______ AM/PM</t>
   </si>
   <si>
-    <t>Remarks:</t>
-  </si>
-  <si>
-    <t>Based on the above quotation of prices by the different dealers called for on the above articles, the Committee hereby recommends that the award be given to the dealer (s) which offered the lowest</t>
-  </si>
-  <si>
-    <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Item(s) 1 to 1 to 7-08 Auto Shop
-</t>
-  </si>
-  <si>
-    <t>MAYBELLINE M. MONTEIRO</t>
-  </si>
-  <si>
-    <t>JOYCE ARLA PEACH B. ESCALANTE</t>
-  </si>
-  <si>
-    <t>HANNAH GRACE P. SOLIS</t>
-  </si>
-  <si>
-    <t>SSVPC Member</t>
-  </si>
-  <si>
-    <t>Alternate SSVPC Member</t>
-  </si>
-  <si>
-    <t>Noted By:</t>
-  </si>
-  <si>
-    <t>BEZALEEL O. SOLTURA</t>
-  </si>
-  <si>
-    <t>SSVPC Head</t>
-  </si>
-  <si>
-    <t>Eligibility Requirements:</t>
-  </si>
-  <si>
-    <t>Note: In order to be eligible for this procurement, suppliers / service providers must submit together with the quotation / proposal the following eligibility requirements:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          1. Valid Business Permit       2. Latest Income / Business Tax Return       3. PhilGEPS Registration No.</t>
+    <t>ITEM NO.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="[$₱-464]#,##0.00;[Red][$₱-464]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="\₱#,##0.00_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,34 +178,13 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EDF7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EDF7"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -293,16 +194,29 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -310,46 +224,42 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -358,7 +268,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -366,83 +276,59 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF6A6D6D"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF6A6D6D"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF6A6D6D"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF6A6D6D"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,221 +336,165 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+  <cellXfs count="56">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -678,31 +508,46 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="857250" cy="828675"/>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381635</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>111573</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49638B3-4B0A-4951-B564-3AC98A979317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+          <a:off x="45720" y="220980"/>
+          <a:ext cx="861695" cy="827405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -710,15 +555,20 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:colOff>879102</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104582</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2400300" cy="742950"/>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1048234</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>92178</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2"/>
@@ -727,15 +577,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+          <a:off x="8403852" y="295082"/>
+          <a:ext cx="2397982" cy="740071"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -743,7 +599,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -758,44 +614,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -823,14 +679,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -858,6 +731,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -869,166 +759,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -1036,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,106 +935,92 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="52"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="59" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="38" t="s">
-        <v>7</v>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54">
+        <v>23213</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38" t="s">
+      <c r="D12" s="54"/>
+      <c r="E12" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57">
-        <v>580</v>
-      </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -1187,378 +1039,314 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>20</v>
+      <c r="A14" s="25" t="s">
+        <v>19</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>21</v>
+      <c r="B14" s="27" t="s">
+        <v>12</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="61" t="s">
-        <v>22</v>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="24" t="s">
+        <v>16</v>
       </c>
-      <c r="G14" s="61" t="s">
-        <v>23</v>
+      <c r="G14" s="24" t="s">
+        <v>13</v>
       </c>
-      <c r="H14" s="48" t="s">
-        <v>24</v>
+      <c r="H14" s="25" t="s">
+        <v>17</v>
       </c>
-      <c r="I14" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="60"/>
-      <c r="K14" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="60"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="49"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>28</v>
+      <c r="K15" s="7" t="s">
+        <v>14</v>
       </c>
-      <c r="L15" s="17" t="s">
-        <v>29</v>
+      <c r="L15" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
-        <v>1</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="19">
-        <v>290</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="20">
-        <v>32.630000000000003</v>
-      </c>
-      <c r="I16" s="20">
-        <v>1</v>
-      </c>
-      <c r="J16" s="21">
-        <v>290</v>
-      </c>
-      <c r="K16" s="23">
-        <v>2</v>
-      </c>
-      <c r="L16" s="23">
-        <v>580</v>
-      </c>
-      <c r="M16" s="21">
-        <v>3</v>
-      </c>
-      <c r="N16" s="21">
-        <v>870</v>
-      </c>
+    <row r="16" spans="1:14" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A16" s="22"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="21">
-        <v>290</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="25">
-        <v>580</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="21">
-        <v>870</v>
-      </c>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="70"/>
-      <c r="N26" s="12"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="M27" s="70"/>
-      <c r="N27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="74"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1569,10 +1357,8 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="75"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -1595,9 +1381,7 @@
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>45</v>
-      </c>
+      <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1613,9 +1397,7 @@
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>46</v>
-      </c>
+      <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1631,9 +1413,7 @@
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>47</v>
-      </c>
+      <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -4289,22 +4069,13 @@
       <c r="N201" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="36">
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
+  <mergeCells count="27">
+    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="B14:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="A14:A15"/>
@@ -4321,15 +4092,14 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L11:N12"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,Bold"&amp;K00-024THIS DOCUMENTED INFORMATION IS CONTROLLED AND NOT TO BE REPRODUCED WITHOUT AUTHORIZATION</oddFooter>
   </headerFooter>
